--- a/TWDB_WaDE_ReadyInput.xlsx
+++ b/TWDB_WaDE_ReadyInput.xlsx
@@ -16805,10 +16805,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
       </c>
       <c r="F1" t="s">
         <v>358</v>
